--- a/docs/Console Layout.xlsx
+++ b/docs/Console Layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Labs\Git\MediaTagger\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F943C3-3B80-4C1C-A1A3-DBCC28130310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9493F8-DC09-46F0-A3ED-E5B63AE5D723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{AE6A123C-544F-4011-959B-9EC778AEC766}"/>
+    <workbookView xWindow="3528" yWindow="-16236" windowWidth="24984" windowHeight="15264" xr2:uid="{AE6A123C-544F-4011-959B-9EC778AEC766}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>05 - I've Been Loving You Too Long.flac</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>#3</t>
+  </si>
+  <si>
+    <t>Shorter Path</t>
+  </si>
+  <si>
+    <t>Longer Path</t>
+  </si>
+  <si>
+    <t>Shorter File Name</t>
+  </si>
+  <si>
+    <t>Longer File Name</t>
+  </si>
+  <si>
+    <t>Metadata View</t>
+  </si>
+  <si>
+    <t>File View</t>
   </si>
 </sst>
 </file>
@@ -128,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -176,11 +194,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -241,6 +268,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53735E3-4E48-405B-8198-27E9F199842D}">
-  <dimension ref="D2:N28"/>
+  <dimension ref="D2:Q28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -571,15 +616,20 @@
     <col min="6" max="7" width="1" style="2" customWidth="1"/>
     <col min="8" max="8" width="34.81640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="4.36328125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="2"/>
+    <col min="10" max="13" width="8.7265625" style="2"/>
+    <col min="14" max="14" width="7.81640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.453125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1796875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="4:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D3" s="20" t="s">
         <v>15</v>
       </c>
@@ -589,12 +639,19 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="4:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I4" s="19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="4:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
+    </row>
+    <row r="5" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
@@ -605,8 +662,21 @@
         <v>10</v>
       </c>
       <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="4:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="25"/>
+      <c r="N5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="24">
+        <v>63</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="4:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
         <v>5</v>
@@ -616,8 +686,19 @@
       <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="4:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="25"/>
+      <c r="N6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="21">
+        <v>147</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" spans="4:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E7" s="12" t="s">
         <v>14</v>
       </c>
@@ -627,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
@@ -636,8 +717,15 @@
       <c r="H8" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="4:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="4:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="12" t="s">
         <v>7</v>
       </c>
@@ -646,8 +734,21 @@
       <c r="H9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="4:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="25"/>
+      <c r="N9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="24">
+        <v>63</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E10" s="12" t="s">
         <v>8</v>
       </c>
@@ -656,8 +757,19 @@
       <c r="H10" s="15">
         <v>2008</v>
       </c>
-    </row>
-    <row r="11" spans="4:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="25"/>
+      <c r="N10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="21">
+        <v>147</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" spans="4:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E11" s="12" t="s">
         <v>9</v>
       </c>
@@ -667,13 +779,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="4:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="4:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
@@ -685,7 +797,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="4:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D14" s="11"/>
       <c r="E14" s="12" t="s">
         <v>5</v>
@@ -695,9 +807,8 @@
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="4:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="4:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E15" s="12" t="s">
         <v>14</v>
       </c>
@@ -707,7 +818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="4:14" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E16" s="12" t="s">
         <v>6</v>
       </c>
